--- a/Outputs/R42_d18O_stack/R/untuned_intermediate_tuned_ages_uncertainty.xlsx
+++ b/Outputs/R42_d18O_stack/R/untuned_intermediate_tuned_ages_uncertainty.xlsx
@@ -1,21 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhou/Documents/GitHub/BIGMACS_MacOS/Outputs/R42_d18O_stack/R/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A230F83-070B-874F-8095-549CCA304E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="23280" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>tsd</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +93,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +145,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +179,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +214,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,26 +390,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>depth</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>tsd</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>200</v>
       </c>
@@ -377,39 +415,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>210</v>
       </c>
       <c r="B3">
-        <v>0.02694927786255293</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2.6949277862552929E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>220</v>
       </c>
       <c r="B4">
-        <v>0.05350969013387935</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5.3509690133879351E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>230</v>
       </c>
       <c r="B5">
-        <v>0.07885763390315581</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>7.885763390315581E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>240</v>
       </c>
       <c r="B6">
-        <v>0.1040871459179891</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.10408714591798909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>250</v>
       </c>
@@ -417,7 +455,7 @@
         <v>0.1294079429127849</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>260</v>
       </c>
@@ -425,15 +463,15 @@
         <v>0.1543233839389731</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>270</v>
       </c>
       <c r="B9">
-        <v>0.1784905614980951</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.17849056149809511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>280</v>
       </c>
@@ -441,7 +479,7 @@
         <v>0.2025726430794311</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>290</v>
       </c>
@@ -449,55 +487,55 @@
         <v>0.2271982987871676</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>300</v>
       </c>
       <c r="B12">
-        <v>0.2516624185321858</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.25166241853218579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>310</v>
       </c>
       <c r="B13">
-        <v>0.2761976839266085</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.27619768392660848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>320</v>
       </c>
       <c r="B14">
-        <v>0.3011389998310615</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.30113899983106152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>330</v>
       </c>
       <c r="B15">
-        <v>0.3256271612638869</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.32562716126388691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>340</v>
       </c>
       <c r="B16">
-        <v>0.3500157764525613</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.35001577645256132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>350</v>
       </c>
       <c r="B17">
-        <v>0.374567779317845</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.37456777931784502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>360</v>
       </c>
@@ -505,31 +543,31 @@
         <v>0.3988515162132007</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>370</v>
       </c>
       <c r="B19">
-        <v>0.4232322465282903</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.42323224652829028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>380</v>
       </c>
       <c r="B20">
-        <v>0.4479664808353768</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0.44796648083537682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>390</v>
       </c>
       <c r="B21">
-        <v>0.4725657400440317</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.47256574004403168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>400</v>
       </c>
@@ -537,23 +575,23 @@
         <v>0.4970522792677296</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>410</v>
       </c>
       <c r="B23">
-        <v>0.5215872378415202</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0.52158723784152017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>420</v>
       </c>
       <c r="B24">
-        <v>0.5460923395179385</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0.54609233951793845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>430</v>
       </c>
@@ -561,55 +599,55 @@
         <v>0.5709043190681683</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>440</v>
       </c>
       <c r="B26">
-        <v>0.59590235242728</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0.59590235242727996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>450</v>
       </c>
       <c r="B27">
-        <v>0.6209486844278624</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.62094868442786244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>460</v>
       </c>
       <c r="B28">
-        <v>0.6460766023406398</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0.64607660234063979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>470</v>
       </c>
       <c r="B29">
-        <v>0.6713952173322473</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0.67139521733224727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>480</v>
       </c>
       <c r="B30">
-        <v>0.6967023534381876</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0.69670235343818765</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>490</v>
       </c>
       <c r="B31">
-        <v>0.721862234118584</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.72186223411858397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>500</v>
       </c>
@@ -617,47 +655,47 @@
         <v>0.7470668477467205</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>510</v>
       </c>
       <c r="B33">
-        <v>0.7723293673335896</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0.77232936733358959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>520</v>
       </c>
       <c r="B34">
-        <v>0.7975895382559959</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0.79758953825599588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>530</v>
       </c>
       <c r="B35">
-        <v>0.8226865423088661</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0.82268654230886606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>540</v>
       </c>
       <c r="B36">
-        <v>0.8479993766461849</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0.84799937664618485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>550</v>
       </c>
       <c r="B37">
-        <v>0.8738360901708724</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0.87383609017087238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>560</v>
       </c>
@@ -665,7 +703,7 @@
         <v>0.8999547969311037</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>570</v>
       </c>
@@ -673,55 +711,55 @@
         <v>0.9259221142734112</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>580</v>
       </c>
       <c r="B40">
-        <v>0.9514381217120034</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0.95143812171200337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>590</v>
       </c>
       <c r="B41">
-        <v>0.9770058439610196</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0.97700584396101964</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>600</v>
       </c>
       <c r="B42">
-        <v>1.002386603608652</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>1.0023866036086519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>610</v>
       </c>
       <c r="B43">
-        <v>1.027611559947749</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>1.0276115599477491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>620</v>
       </c>
       <c r="B44">
-        <v>1.053140621385232</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>1.0531406213852319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>630</v>
       </c>
       <c r="B45">
-        <v>1.078408898731288</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1.0784088987312881</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>640</v>
       </c>
@@ -729,7 +767,7 @@
         <v>1.103321919163105</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>650</v>
       </c>
@@ -737,31 +775,31 @@
         <v>1.128477216904245</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>660</v>
       </c>
       <c r="B48">
-        <v>1.153429633672994</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>1.1534296336729939</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>670</v>
       </c>
       <c r="B49">
-        <v>1.177988926350667</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1.1779889263506671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>680</v>
       </c>
       <c r="B50">
-        <v>1.20250946868755</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>1.2025094686875499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>690</v>
       </c>
@@ -769,7 +807,7 @@
         <v>1.227059919810167</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>700</v>
       </c>
@@ -777,7 +815,7 @@
         <v>1.251566834188504</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>710</v>
       </c>
@@ -785,15 +823,15 @@
         <v>1.275960298807983</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>720</v>
       </c>
       <c r="B54">
-        <v>1.300459210288574</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1.3004592102885739</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>730</v>
       </c>
@@ -801,7 +839,7 @@
         <v>1.324802535837498</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>740</v>
       </c>
@@ -809,7 +847,7 @@
         <v>1.348911640795609</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>750</v>
       </c>
@@ -817,7 +855,7 @@
         <v>1.373200648573359</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>760</v>
       </c>
@@ -825,7 +863,7 @@
         <v>1.39754608999788</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>770</v>
       </c>
@@ -833,15 +871,15 @@
         <v>1.421972501099029</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>780</v>
       </c>
       <c r="B60">
-        <v>1.446242031437102</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>1.4462420314371021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>790</v>
       </c>
@@ -849,7 +887,7 @@
         <v>1.47004567972881</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>800</v>
       </c>
@@ -857,7 +895,7 @@
         <v>1.493980240925241</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>810</v>
       </c>
@@ -865,7 +903,7 @@
         <v>1.518189647690503</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>820</v>
       </c>
@@ -873,15 +911,15 @@
         <v>1.542315790208042</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>830</v>
       </c>
       <c r="B65">
-        <v>1.566198014456495</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>1.5661980144564951</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>840</v>
       </c>
@@ -889,23 +927,23 @@
         <v>1.589737787860092</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>850</v>
       </c>
       <c r="B67">
-        <v>1.612939150456206</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>1.6129391504562061</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>860</v>
       </c>
       <c r="B68">
-        <v>1.636456468621568</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>1.6364564686215679</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>870</v>
       </c>
@@ -913,15 +951,15 @@
         <v>1.660594175778729</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>880</v>
       </c>
       <c r="B70">
-        <v>1.684975865977644</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>1.6849758659776439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>890</v>
       </c>
@@ -929,15 +967,15 @@
         <v>1.709371050868949</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>900</v>
       </c>
       <c r="B72">
-        <v>1.733524409421651</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>1.7335244094216511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>910</v>
       </c>
@@ -945,7 +983,7 @@
         <v>1.757499619434072</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>920</v>
       </c>
@@ -953,39 +991,39 @@
         <v>1.781245965340563</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>930</v>
       </c>
       <c r="B75">
-        <v>1.804664420492795</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>1.8046644204927951</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>940</v>
       </c>
       <c r="B76">
-        <v>1.828355793652331</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>1.8283557936523309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>950</v>
       </c>
       <c r="B77">
-        <v>1.852321179475375</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>1.8523211794753749</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>960</v>
       </c>
       <c r="B78">
-        <v>1.876260697022818</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>1.8762606970228179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>970</v>
       </c>
@@ -993,15 +1031,15 @@
         <v>1.900256861195621</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>980</v>
       </c>
       <c r="B80">
-        <v>1.924220425301895</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>1.9242204253018951</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>990</v>
       </c>
@@ -1009,15 +1047,15 @@
         <v>1.948281920839509</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1000</v>
       </c>
       <c r="B82">
-        <v>1.972133883255263</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>1.9721338832552631</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1010</v>
       </c>
@@ -1025,63 +1063,63 @@
         <v>1.996096347304422</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1020</v>
       </c>
       <c r="B84">
-        <v>2.020645314999437</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>2.0206453149994368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1030</v>
       </c>
       <c r="B85">
-        <v>2.045227870191032</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>2.0452278701910318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1040</v>
       </c>
       <c r="B86">
-        <v>2.069521620682376</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>2.0695216206823761</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1050</v>
       </c>
       <c r="B87">
-        <v>2.094030028542923</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>2.0940300285429232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1060</v>
       </c>
       <c r="B88">
-        <v>2.118794708738245</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>2.1187947087382448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1070</v>
       </c>
       <c r="B89">
-        <v>2.143471188916256</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>2.1434711889162559</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1080</v>
       </c>
       <c r="B90">
-        <v>2.168623348118527</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>2.1686233481185271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1090</v>
       </c>
@@ -1089,15 +1127,15 @@
         <v>2.193991768767519</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1100</v>
       </c>
       <c r="B92">
-        <v>2.219425713642663</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>2.2194257136426629</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1110</v>
       </c>
@@ -1105,15 +1143,15 @@
         <v>2.244742173323059</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1120</v>
       </c>
       <c r="B94">
-        <v>2.270238179042461</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>2.2702381790424608</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1130</v>
       </c>
@@ -1121,63 +1159,63 @@
         <v>2.296069568823571</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1140</v>
       </c>
       <c r="B96">
-        <v>2.321765353898326</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>2.3217653538983258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1150</v>
       </c>
       <c r="B97">
-        <v>2.347413460121421</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>2.3474134601214209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1160</v>
       </c>
       <c r="B98">
-        <v>2.372915476018641</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>2.3729154760186408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1170</v>
       </c>
       <c r="B99">
-        <v>2.39852590441449</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>2.3985259044144902</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1180</v>
       </c>
       <c r="B100">
-        <v>2.424415611687135</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>2.4244156116871349</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1190</v>
       </c>
       <c r="B101">
-        <v>2.450383778644239</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>2.4503837786442388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1200</v>
       </c>
       <c r="B102">
-        <v>2.476132273580472</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>2.4761322735804718</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1210</v>
       </c>
@@ -1185,7 +1223,7 @@
         <v>2.501817399198099</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1220</v>
       </c>
@@ -1193,63 +1231,63 @@
         <v>2.527526792022647</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1230</v>
       </c>
       <c r="B105">
-        <v>2.553343041679678</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>2.5533430416796778</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1240</v>
       </c>
       <c r="B106">
-        <v>2.579277057307595</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>2.5792770573075949</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1250</v>
       </c>
       <c r="B107">
-        <v>2.6051891026889</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>2.6051891026888998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1260</v>
       </c>
       <c r="B108">
-        <v>2.631026966087154</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>2.6310269660871541</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1270</v>
       </c>
       <c r="B109">
-        <v>2.656992238943156</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>2.6569922389431562</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1280</v>
       </c>
       <c r="B110">
-        <v>2.683076913022351</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>2.6830769130223509</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1290</v>
       </c>
       <c r="B111">
-        <v>2.708781813619002</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>2.7087818136190021</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1300</v>
       </c>
@@ -1257,7 +1295,7 @@
         <v>2.734104624228086</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1310</v>
       </c>
@@ -1265,47 +1303,47 @@
         <v>2.759468486984348</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1320</v>
       </c>
       <c r="B114">
-        <v>2.785092156318177</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>2.7850921563181772</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1330</v>
       </c>
       <c r="B115">
-        <v>2.810877702814257</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>2.8108777028142571</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1340</v>
       </c>
       <c r="B116">
-        <v>2.836530837146224</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>2.8365308371462241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1350</v>
       </c>
       <c r="B117">
-        <v>2.861859442176402</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>2.8618594421764021</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1360</v>
       </c>
       <c r="B118">
-        <v>2.887044007886933</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>2.8870440078869328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1370</v>
       </c>
@@ -1313,31 +1351,31 @@
         <v>2.912264079250797</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1380</v>
       </c>
       <c r="B120">
-        <v>2.937559420321259</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>2.9375594203212589</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1390</v>
       </c>
       <c r="B121">
-        <v>2.962575290904499</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>2.9625752909044989</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1400</v>
       </c>
       <c r="B122">
-        <v>2.987382938077314</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>2.9873829380773138</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1410</v>
       </c>
@@ -1345,15 +1383,15 @@
         <v>3.012553255258311</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1420</v>
       </c>
       <c r="B124">
-        <v>3.038045545633279</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>3.0380455456332789</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1430</v>
       </c>
@@ -1361,71 +1399,71 @@
         <v>3.063581930656293</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1440</v>
       </c>
       <c r="B126">
-        <v>3.088698907387006</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>3.0886989073870059</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1450</v>
       </c>
       <c r="B127">
-        <v>3.113536678927997</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>3.1135366789279968</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1460</v>
       </c>
       <c r="B128">
-        <v>3.138218760098795</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>3.1382187600987952</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1470</v>
       </c>
       <c r="B129">
-        <v>3.162819617992523</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>3.1628196179925232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1480</v>
       </c>
       <c r="B130">
-        <v>3.187430476550262</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>3.1874304765502619</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1490</v>
       </c>
       <c r="B131">
-        <v>3.211764252948294</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>3.2117642529482939</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1500</v>
       </c>
       <c r="B132">
-        <v>3.236130919936321</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>3.2361309199363211</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1510</v>
       </c>
       <c r="B133">
-        <v>3.260651760139874</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>3.2606517601398739</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1520</v>
       </c>
@@ -1433,15 +1471,15 @@
         <v>3.285002613388087</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1530</v>
       </c>
       <c r="B135">
-        <v>3.309350774478333</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>3.3093507744783328</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1540</v>
       </c>
@@ -1449,47 +1487,47 @@
         <v>3.333768847337566</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1550</v>
       </c>
       <c r="B137">
-        <v>3.358199883752585</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>3.3581998837525848</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1560</v>
       </c>
       <c r="B138">
-        <v>3.382547326169253</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>3.3825473261692531</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1570</v>
       </c>
       <c r="B139">
-        <v>3.406799994384252</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>3.4067999943842522</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1580</v>
       </c>
       <c r="B140">
-        <v>3.430897542383622</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>3.4308975423836219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1590</v>
       </c>
       <c r="B141">
-        <v>3.454572192683681</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>3.4545721926836812</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1600</v>
       </c>
@@ -1497,23 +1535,23 @@
         <v>3.47823472744428</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1610</v>
       </c>
       <c r="B143">
-        <v>3.502008307154236</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>3.5020083071542358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1620</v>
       </c>
       <c r="B144">
-        <v>3.525792654612325</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>3.5257926546123248</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1630</v>
       </c>
@@ -1521,15 +1559,15 @@
         <v>3.549620618006089</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1640</v>
       </c>
       <c r="B146">
-        <v>3.573287588549684</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>3.5732875885496842</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1650</v>
       </c>
@@ -1537,23 +1575,23 @@
         <v>3.596827953670986</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1660</v>
       </c>
       <c r="B148">
-        <v>3.620514021538163</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>3.6205140215381628</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1670</v>
       </c>
       <c r="B149">
-        <v>3.644233149838385</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>3.6442331498383851</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1680</v>
       </c>
@@ -1561,15 +1599,15 @@
         <v>3.667793775537076</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1690</v>
       </c>
       <c r="B151">
-        <v>3.69122407249558</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>3.6912240724955798</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1700</v>
       </c>
@@ -1577,15 +1615,15 @@
         <v>3.71483760749341</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1710</v>
       </c>
       <c r="B153">
-        <v>3.7388283138329</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>3.7388283138328999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1720</v>
       </c>
@@ -1593,23 +1631,23 @@
         <v>3.76288381296825</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1730</v>
       </c>
       <c r="B155">
-        <v>3.787017440082726</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>3.7870174400827259</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1740</v>
       </c>
       <c r="B156">
-        <v>3.811429710967774</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>3.8114297109677739</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1750</v>
       </c>
@@ -1617,7 +1655,7 @@
         <v>3.835942822636587</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1760</v>
       </c>
@@ -1625,31 +1663,31 @@
         <v>3.860309150872177</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1770</v>
       </c>
       <c r="B159">
-        <v>3.884652737047314</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>3.8846527370473138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1780</v>
       </c>
       <c r="B160">
-        <v>3.909140529625587</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>3.9091405296255868</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1790</v>
       </c>
       <c r="B161">
-        <v>3.933566672960221</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>3.9335666729602208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1800</v>
       </c>
@@ -1657,39 +1695,39 @@
         <v>3.957825553853473</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1810</v>
       </c>
       <c r="B163">
-        <v>3.982008954723727</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>3.9820089547237272</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1820</v>
       </c>
       <c r="B164">
-        <v>4.005934146619359</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>4.0059341466193592</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1830</v>
       </c>
       <c r="B165">
-        <v>4.029655871517235</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>4.0296558715172353</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1840</v>
       </c>
       <c r="B166">
-        <v>4.053693789102454</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>4.0536937891024536</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1850</v>
       </c>
@@ -1697,223 +1735,223 @@
         <v>4.077890765028136</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1860</v>
       </c>
       <c r="B168">
-        <v>4.101925204072752</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>4.1019252040727521</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1870</v>
       </c>
       <c r="B169">
-        <v>4.126224759106467</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>4.1262247591064671</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1880</v>
       </c>
       <c r="B170">
-        <v>4.150830395007726</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>4.1508303950077261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1890</v>
       </c>
       <c r="B171">
-        <v>4.175270067194947</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>4.1752700671949468</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1900</v>
       </c>
       <c r="B172">
-        <v>4.199655373002161</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>4.1996553730021606</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1910</v>
       </c>
       <c r="B173">
-        <v>4.223983798210013</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>4.2239837982100132</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1920</v>
       </c>
       <c r="B174">
-        <v>4.248215333126761</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>4.2482153331267609</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1930</v>
       </c>
       <c r="B175">
-        <v>4.272612452363791</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>4.2726124523637914</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1940</v>
       </c>
       <c r="B176">
-        <v>4.296927033155574</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>4.2969270331555736</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1950</v>
       </c>
       <c r="B177">
-        <v>4.321369568133534</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>4.3213695681335338</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1960</v>
       </c>
       <c r="B178">
-        <v>4.346127773415695</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>4.3461277734156951</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1970</v>
       </c>
       <c r="B179">
-        <v>4.371115912635442</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>4.3711159126354424</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1980</v>
       </c>
       <c r="B180">
-        <v>4.396370599658371</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>4.3963705996583711</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1990</v>
       </c>
       <c r="B181">
-        <v>4.421552618563226</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>4.4215526185632257</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2000</v>
       </c>
       <c r="B182">
-        <v>4.446445665376811</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>4.4464456653768112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2010</v>
       </c>
       <c r="B183">
-        <v>4.471342052970019</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>4.4713420529700194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2020</v>
       </c>
       <c r="B184">
-        <v>4.496416493335128</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>4.4964164933351283</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2030</v>
       </c>
       <c r="B185">
-        <v>4.521536263213378</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>4.5215362632133784</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2040</v>
       </c>
       <c r="B186">
-        <v>4.546561941714227</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>4.5465619417142271</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2050</v>
       </c>
       <c r="B187">
-        <v>4.571386829976933</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>4.5713868299769329</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2060</v>
       </c>
       <c r="B188">
-        <v>4.596306937700707</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>4.5963069377007066</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2070</v>
       </c>
       <c r="B189">
-        <v>4.62146467918013</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>4.6214646791801304</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2080</v>
       </c>
       <c r="B190">
-        <v>4.646566866635766</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>4.6465668666357658</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2090</v>
       </c>
       <c r="B191">
-        <v>4.671412384528102</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>4.6714123845281019</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2100</v>
       </c>
       <c r="B192">
-        <v>4.696328217220788</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>4.6963282172207883</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2110</v>
       </c>
       <c r="B193">
-        <v>4.721543693476015</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>4.7215436934760149</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2120</v>
       </c>
       <c r="B194">
-        <v>4.747114217373437</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>4.7471142173734373</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2130</v>
       </c>
@@ -1921,183 +1959,183 @@
         <v>4.772977373065328</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2140</v>
       </c>
       <c r="B196">
-        <v>4.798835375691938</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>4.7988353756919384</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2150</v>
       </c>
       <c r="B197">
-        <v>4.824438904625944</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>4.8244389046259437</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2160</v>
       </c>
       <c r="B198">
-        <v>4.849971628019259</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>4.8499716280192589</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2170</v>
       </c>
       <c r="B199">
-        <v>4.875666965167285</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>4.8756669651672846</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2180</v>
       </c>
       <c r="B200">
-        <v>4.901229961110518</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>4.9012299611105181</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2190</v>
       </c>
       <c r="B201">
-        <v>4.926572166069429</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>4.9265721660694286</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2200</v>
       </c>
       <c r="B202">
-        <v>4.951847725984281</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>4.9518477259842806</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2210</v>
       </c>
       <c r="B203">
-        <v>4.977057565331198</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>4.9770575653311981</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2220</v>
       </c>
       <c r="B204">
-        <v>5.002506411260071</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>5.0025064112600708</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2230</v>
       </c>
       <c r="B205">
-        <v>5.028196239219229</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>5.0281962392192288</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2240</v>
       </c>
       <c r="B206">
-        <v>5.053696904759629</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>5.0536969047596294</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2250</v>
       </c>
       <c r="B207">
-        <v>5.078942380857531</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>5.0789423808575309</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2260</v>
       </c>
       <c r="B208">
-        <v>5.104256233632952</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>5.1042562336329516</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2270</v>
       </c>
       <c r="B209">
-        <v>5.129697546988841</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>5.1296975469888411</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2280</v>
       </c>
       <c r="B210">
-        <v>5.155200520924708</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>5.1552005209247076</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2290</v>
       </c>
       <c r="B211">
-        <v>5.180615363486051</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>5.1806153634860506</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2300</v>
       </c>
       <c r="B212">
-        <v>5.206060097241045</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>5.2060600972410453</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2310</v>
       </c>
       <c r="B213">
-        <v>5.23151657191034</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>5.2315165719103396</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2320</v>
       </c>
       <c r="B214">
-        <v>5.256793998873264</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>5.2567939988732642</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2330</v>
       </c>
       <c r="B215">
-        <v>5.282092600701563</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>5.2820926007015627</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2340</v>
       </c>
       <c r="B216">
-        <v>5.307433232070246</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>5.3074332320702462</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2350</v>
       </c>
       <c r="B217">
-        <v>5.332790744589446</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>5.3327907445894462</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2360</v>
       </c>
@@ -2105,31 +2143,31 @@
         <v>5.358140320768026</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2370</v>
       </c>
       <c r="B219">
-        <v>5.383556451933312</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>5.3835564519333117</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2380</v>
       </c>
       <c r="B220">
-        <v>5.409045983832152</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>5.4090459838321516</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2390</v>
       </c>
       <c r="B221">
-        <v>5.434489165417019</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>5.4344891654170189</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2400</v>
       </c>
@@ -2137,63 +2175,63 @@
         <v>5.459762988411371</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2410</v>
       </c>
       <c r="B223">
-        <v>5.484963042529484</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>5.4849630425294844</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2420</v>
       </c>
       <c r="B224">
-        <v>5.510126995888234</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>5.5101269958882337</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2430</v>
       </c>
       <c r="B225">
-        <v>5.535163725665761</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>5.5351637256657611</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2440</v>
       </c>
       <c r="B226">
-        <v>5.559969312912949</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>5.5599693129129486</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2450</v>
       </c>
       <c r="B227">
-        <v>5.584722278127318</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>5.5847222781273178</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2460</v>
       </c>
       <c r="B228">
-        <v>5.609526239775455</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>5.6095262397754553</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2470</v>
       </c>
       <c r="B229">
-        <v>5.634214943133347</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>5.6342149431333466</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2480</v>
       </c>
@@ -2201,76 +2239,76 @@
         <v>5.658721983729853</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2490</v>
       </c>
       <c r="B231">
-        <v>5.682896261017966</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>5.6828962610179659</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2500</v>
       </c>
       <c r="B232">
-        <v>5.707036934493614</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>5.7070369344936136</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2510</v>
       </c>
       <c r="B233">
-        <v>5.731344495658939</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>5.7313444956589388</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2520</v>
       </c>
       <c r="B234">
-        <v>5.755737195153244</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>5.7557371951532437</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2530</v>
       </c>
       <c r="B235">
-        <v>5.780433633483406</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>5.7804336334834057</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2540</v>
       </c>
       <c r="B236">
-        <v>5.804999564096586</v>
-      </c>
-    </row>
-    <row r="237">
+        <v>5.8049995640965859</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2550</v>
       </c>
       <c r="B237">
-        <v>5.829169296754175</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>5.8291692967541753</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2560</v>
       </c>
       <c r="B238">
-        <v>5.853511203045123</v>
-      </c>
-    </row>
-    <row r="239">
+        <v>5.8535112030451231</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2570</v>
       </c>
       <c r="B239">
-        <v>5.878092695706147</v>
+        <v>5.8780926957061466</v>
       </c>
     </row>
   </sheetData>
